--- a/old_image/careplan.xlsx
+++ b/old_image/careplan.xlsx
@@ -467,7 +467,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -853,10 +853,10 @@
 </t>
   </si>
   <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+    <t>Action to occur or has occurred as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies an action that has occurred or is a planned action to occur as part of the plan. For example, a medication to be used, lab tests to perform, self-monitoring that has occurred, education etc.</t>
   </si>
   <si>
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
@@ -1036,7 +1036,7 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Kind of resource</t>
+    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
   </si>
   <si>
     <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
@@ -1564,7 +1564,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
